--- a/WSC/Test Cases/Counselling/WSC COUNSELLING Test Cases.xlsx
+++ b/WSC/Test Cases/Counselling/WSC COUNSELLING Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7530" tabRatio="599" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="TC4_Exam Centre master " sheetId="24" r:id="rId5"/>
     <sheet name="TC5_Exam Centre Selection " sheetId="25" r:id="rId6"/>
     <sheet name="TC6_EntrnaceExam AdmitCard TooL" sheetId="26" r:id="rId7"/>
-    <sheet name="Generic" sheetId="18" r:id="rId8"/>
+    <sheet name="TC7_Reporting Desk" sheetId="27" r:id="rId8"/>
+    <sheet name="Generic" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="404">
   <si>
     <t>Contents</t>
   </si>
@@ -875,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t>TC4_Entrance Exam Admit Card Tool</t>
+    <t>TC6_Entrance Exam Admit Card Tool</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the  Admit Card </t>
@@ -902,6 +903,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Enter the below details.
 -</t>
     </r>
@@ -946,6 +954,144 @@
   <si>
     <t xml:space="preserve">Home &gt; Admission &gt; Selection  and Application&gt; Entrance Exam &gt; Entrance Exam Admit Card Tool,Check the list of records from Buildings .And click on one of the records.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC7_Reporting Desk
+</t>
+  </si>
+  <si>
+    <t>Aman Kumar Singh</t>
+  </si>
+  <si>
+    <t>url: wscdemo.eduleadonline.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
+  </si>
+  <si>
+    <t>Counselling &gt;  Reporting Desk</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Counselling &gt;  Reporting Desk</t>
+  </si>
+  <si>
+    <t>Reporting Desk page should be open</t>
+  </si>
+  <si>
+    <t>click on add Reporting Desk button</t>
+  </si>
+  <si>
+    <t>new Reporting Desk form page should be open</t>
+  </si>
+  <si>
+    <t>click on Applicant Id dropdown, select application id</t>
+  </si>
+  <si>
+    <t>user should able to select Applicant Id
+it should be a link field</t>
+  </si>
+  <si>
+    <t>verify the screen after put Applicant Id</t>
+  </si>
+  <si>
+    <t>Applicant Name, Gender, Student Category, Academic Year, Academic Term, Department, Total Marks, Earned Marks fields should be auto fetched
+it should be editable</t>
+  </si>
+  <si>
+    <t>click on Applicant Name text field, fill or edit it</t>
+  </si>
+  <si>
+    <t>user should able to fill or edit Applicant Name field</t>
+  </si>
+  <si>
+    <t>click on Gender dropdown, select or edit it</t>
+  </si>
+  <si>
+    <t>user should able to select gender from Gender dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>click on Student Category dropdown, select or edit it</t>
+  </si>
+  <si>
+    <t>user should able to select Student Category from dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>click on Academic Year dropdown, select or edit it</t>
+  </si>
+  <si>
+    <t>user should able to select Academic Year from dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>click on Academic Term dropdown, select or edit it</t>
+  </si>
+  <si>
+    <t>user should able to select Academic Term from dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>click onDepartment dropdown, select or edit it</t>
+  </si>
+  <si>
+    <t>user should able to select Department from dropdown
+it should be a link field</t>
+  </si>
+  <si>
+    <t>click on Total Marks text field, fill or edit it</t>
+  </si>
+  <si>
+    <t>user should able to fill or edit Total Marks field only with numeric</t>
+  </si>
+  <si>
+    <t>click on Earned  Marks text field, fill or edit it</t>
+  </si>
+  <si>
+    <t>user should able to fill or edit Earned  Marks field only with numeric</t>
+  </si>
+  <si>
+    <t>click on Physical Disability checkbox</t>
+  </si>
+  <si>
+    <t>Physical Disability checkbox should be clickable</t>
+  </si>
+  <si>
+    <t>click on add row button of Applicant Rank section</t>
+  </si>
+  <si>
+    <t>new row should be created in Applicant Rank table</t>
+  </si>
+  <si>
+    <t>click on view icon of Applicant Rank</t>
+  </si>
+  <si>
+    <t>Applicant Rank details fields should be shown likeRank Type &amp; Rank Obtained</t>
+  </si>
+  <si>
+    <t>click on Rank Type text field, fill it</t>
+  </si>
+  <si>
+    <t>user should able to fill Rank Type</t>
+  </si>
+  <si>
+    <t>click on Rank Obtained text field, fill it</t>
+  </si>
+  <si>
+    <t>user should able to fill Rank Obtained</t>
+  </si>
+  <si>
+    <t>after fill all mandatory and required fields, click on save button</t>
+  </si>
+  <si>
+    <t>page should be saved successfully.
+assignment should be created but in draft stage</t>
+  </si>
+  <si>
+    <t>click on submit -&gt; yes</t>
+  </si>
+  <si>
+    <t>page should be submitted successfully</t>
   </si>
   <si>
     <t xml:space="preserve">Generic </t>
@@ -1496,7 +1642,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,6 +1672,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2156,135 +2309,135 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2325,6 +2478,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2349,7 +2535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2393,40 +2579,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2776,88 +2953,88 @@
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="69"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" ht="75" customHeight="1" spans="2:12">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" ht="15.75" spans="2:2">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="2:2">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:2">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="2:2">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:2">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:2">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="76" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="2:2">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="2:2">
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="2:2">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="2:2">
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="76" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2874,7 +3051,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D25"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2895,16 +3072,16 @@
       <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -2913,7 +3090,7 @@
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2951,8 +3128,8 @@
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -3051,23 +3228,23 @@
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -3126,7 +3303,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="60"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
@@ -3182,7 +3359,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
@@ -3196,8 +3373,8 @@
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
@@ -3212,7 +3389,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
@@ -3227,7 +3404,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3"/>
@@ -3242,11 +3419,11 @@
         <v>71</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="38"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:7">
@@ -3261,7 +3438,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="38"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:7">
@@ -3276,7 +3453,7 @@
         <v>77</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="38"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:7">
@@ -3287,11 +3464,11 @@
         <v>79</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="38"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:7">
@@ -3302,11 +3479,11 @@
         <v>81</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="38"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:7">
@@ -3317,11 +3494,11 @@
         <v>83</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:7">
@@ -3332,11 +3509,11 @@
         <v>68</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="38"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:7">
@@ -3347,11 +3524,11 @@
         <v>71</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="38"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:7">
@@ -3366,7 +3543,7 @@
         <v>54</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="38"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:7">
@@ -3381,7 +3558,7 @@
         <v>90</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="38"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:7">
@@ -3392,11 +3569,11 @@
         <v>92</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="38"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:7">
@@ -3407,11 +3584,11 @@
         <v>94</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="38"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:7">
@@ -3422,11 +3599,11 @@
         <v>96</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="38"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:7">
@@ -3437,11 +3614,11 @@
         <v>68</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="38"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:7">
@@ -3452,11 +3629,11 @@
         <v>71</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="38"/>
+      <c r="F39" s="49"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:7">
@@ -3471,7 +3648,7 @@
         <v>54</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="38"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:7">
@@ -3486,7 +3663,7 @@
         <v>103</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="38"/>
+      <c r="F41" s="49"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:7">
@@ -3497,11 +3674,11 @@
         <v>105</v>
       </c>
       <c r="C42" s="15"/>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="38"/>
+      <c r="F42" s="49"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:7">
@@ -3512,11 +3689,11 @@
         <v>107</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="38"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:7">
@@ -3527,11 +3704,11 @@
         <v>109</v>
       </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="38"/>
+      <c r="F44" s="49"/>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:7">
@@ -3542,11 +3719,11 @@
         <v>68</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="38"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:7">
@@ -3557,7 +3734,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="3"/>
@@ -3572,7 +3749,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E47" s="3"/>
@@ -3587,97 +3764,97 @@
         <v>113</v>
       </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="39" t="s">
+      <c r="D48" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="40"/>
-    </row>
-    <row r="49" s="50" customFormat="1" spans="1:7">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="44"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" s="61" customFormat="1" spans="1:7">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="50" s="50" customFormat="1" spans="1:7">
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" s="61" customFormat="1" spans="1:7">
       <c r="A50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="44"/>
-    </row>
-    <row r="51" s="47" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46" t="s">
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" s="58" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A52" s="52"/>
-      <c r="B52" s="49" t="s">
+    <row r="52" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A52" s="63"/>
+      <c r="B52" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="48" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A53" s="47"/>
-      <c r="B53" s="49" t="s">
+    <row r="53" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A53" s="58"/>
+      <c r="B53" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A54" s="47"/>
-      <c r="B54" s="49" t="s">
+    <row r="54" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A54" s="58"/>
+      <c r="B54" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48" t="s">
+      <c r="C54" s="58"/>
+      <c r="D54" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" s="50" customFormat="1"/>
-    <row r="56" s="50" customFormat="1"/>
-    <row r="57" s="50" customFormat="1"/>
-    <row r="58" s="50" customFormat="1"/>
-    <row r="59" s="50" customFormat="1"/>
-    <row r="60" s="50" customFormat="1"/>
-    <row r="61" s="50" customFormat="1"/>
-    <row r="62" s="50" customFormat="1"/>
-    <row r="63" s="50" customFormat="1"/>
-    <row r="64" s="50" customFormat="1"/>
-    <row r="65" s="50" customFormat="1"/>
-    <row r="66" s="50" customFormat="1"/>
-    <row r="67" s="50" customFormat="1"/>
-    <row r="68" s="50" customFormat="1"/>
-    <row r="69" s="50" customFormat="1"/>
-    <row r="70" s="50" customFormat="1"/>
-    <row r="71" s="50" customFormat="1"/>
-    <row r="72" s="50" customFormat="1"/>
-    <row r="73" s="50" customFormat="1"/>
-    <row r="74" s="50" customFormat="1"/>
-    <row r="75" s="50" customFormat="1"/>
-    <row r="76" s="50" customFormat="1"/>
-    <row r="77" s="50" customFormat="1"/>
+    <row r="55" s="61" customFormat="1"/>
+    <row r="56" s="61" customFormat="1"/>
+    <row r="57" s="61" customFormat="1"/>
+    <row r="58" s="61" customFormat="1"/>
+    <row r="59" s="61" customFormat="1"/>
+    <row r="60" s="61" customFormat="1"/>
+    <row r="61" s="61" customFormat="1"/>
+    <row r="62" s="61" customFormat="1"/>
+    <row r="63" s="61" customFormat="1"/>
+    <row r="64" s="61" customFormat="1"/>
+    <row r="65" s="61" customFormat="1"/>
+    <row r="66" s="61" customFormat="1"/>
+    <row r="67" s="61" customFormat="1"/>
+    <row r="68" s="61" customFormat="1"/>
+    <row r="69" s="61" customFormat="1"/>
+    <row r="70" s="61" customFormat="1"/>
+    <row r="71" s="61" customFormat="1"/>
+    <row r="72" s="61" customFormat="1"/>
+    <row r="73" s="61" customFormat="1"/>
+    <row r="74" s="61" customFormat="1"/>
+    <row r="75" s="61" customFormat="1"/>
+    <row r="76" s="61" customFormat="1"/>
+    <row r="77" s="61" customFormat="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
@@ -3694,7 +3871,7 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3703,7 +3880,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="79.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="67.4285714285714" style="53" customWidth="1"/>
+    <col min="4" max="4" width="67.4285714285714" style="64" customWidth="1"/>
     <col min="5" max="5" width="38.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="34.5714285714286" customWidth="1"/>
@@ -3716,16 +3893,16 @@
       <c r="B1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3734,8 +3911,8 @@
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3"/>
@@ -3770,8 +3947,8 @@
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -3862,35 +4039,35 @@
       <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="45" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="42" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="3"/>
@@ -3935,7 +4112,7 @@
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="48" t="s">
         <v>132</v>
       </c>
       <c r="C17" s="4"/>
@@ -3943,7 +4120,7 @@
         <v>133</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="135" spans="1:7">
@@ -3999,7 +4176,7 @@
         <v>139</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
@@ -4013,8 +4190,8 @@
       <c r="B22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
@@ -4029,7 +4206,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="3"/>
@@ -4044,11 +4221,11 @@
         <v>71</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" ht="25" customHeight="1" spans="1:7">
@@ -4059,7 +4236,7 @@
         <v>141</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="50" t="s">
         <v>142</v>
       </c>
       <c r="E25" s="3"/>
@@ -4074,12 +4251,12 @@
         <v>111</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" customFormat="1" ht="30" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -4089,12 +4266,12 @@
         <v>113</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" customFormat="1" ht="30" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -4104,12 +4281,12 @@
         <v>143</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="52" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" customFormat="1" ht="45" spans="1:7">
       <c r="A29" s="3" t="s">
@@ -4124,147 +4301,147 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" s="50" customFormat="1" spans="1:7">
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" s="61" customFormat="1" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" s="47" customFormat="1" ht="30" spans="1:4">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46" t="s">
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="58" customFormat="1" ht="30" spans="1:4">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="49" t="s">
+    <row r="32" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A32" s="63"/>
+      <c r="B32" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A33" s="47"/>
-      <c r="B33" s="49" t="s">
+    <row r="33" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A33" s="58"/>
+      <c r="B33" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49" t="s">
+    <row r="34" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A34" s="58"/>
+      <c r="B34" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" s="50" customFormat="1" ht="30" spans="2:4">
-      <c r="B35" s="51" t="s">
+    <row r="35" s="61" customFormat="1" ht="30" spans="2:4">
+      <c r="B35" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="51"/>
-    </row>
-    <row r="36" s="50" customFormat="1" spans="2:4">
-      <c r="B36" s="58"/>
-      <c r="D36" s="51"/>
-    </row>
-    <row r="37" s="50" customFormat="1" spans="4:4">
-      <c r="D37" s="51"/>
-    </row>
-    <row r="38" s="50" customFormat="1" spans="4:4">
-      <c r="D38" s="51"/>
-    </row>
-    <row r="39" s="50" customFormat="1" spans="4:4">
-      <c r="D39" s="51"/>
-    </row>
-    <row r="40" s="50" customFormat="1" spans="4:4">
-      <c r="D40" s="51"/>
-    </row>
-    <row r="41" s="50" customFormat="1" spans="4:4">
-      <c r="D41" s="51"/>
-    </row>
-    <row r="42" s="50" customFormat="1" spans="4:4">
-      <c r="D42" s="51"/>
-    </row>
-    <row r="43" s="50" customFormat="1" spans="4:4">
-      <c r="D43" s="51"/>
-    </row>
-    <row r="44" s="50" customFormat="1" spans="4:4">
-      <c r="D44" s="51"/>
-    </row>
-    <row r="45" s="50" customFormat="1" spans="4:4">
-      <c r="D45" s="51"/>
-    </row>
-    <row r="46" s="50" customFormat="1" spans="4:4">
-      <c r="D46" s="51"/>
-    </row>
-    <row r="47" s="50" customFormat="1" spans="4:4">
-      <c r="D47" s="51"/>
-    </row>
-    <row r="48" s="50" customFormat="1" spans="4:4">
-      <c r="D48" s="51"/>
-    </row>
-    <row r="49" s="50" customFormat="1" spans="4:4">
-      <c r="D49" s="51"/>
-    </row>
-    <row r="50" s="50" customFormat="1" spans="4:4">
-      <c r="D50" s="51"/>
-    </row>
-    <row r="51" s="50" customFormat="1" spans="4:4">
-      <c r="D51" s="51"/>
-    </row>
-    <row r="52" s="50" customFormat="1" spans="4:4">
-      <c r="D52" s="51"/>
-    </row>
-    <row r="53" s="50" customFormat="1" spans="4:4">
-      <c r="D53" s="51"/>
-    </row>
-    <row r="54" s="50" customFormat="1" spans="4:4">
-      <c r="D54" s="51"/>
-    </row>
-    <row r="55" s="50" customFormat="1" spans="4:4">
-      <c r="D55" s="51"/>
-    </row>
-    <row r="56" s="50" customFormat="1" spans="4:4">
-      <c r="D56" s="51"/>
-    </row>
-    <row r="57" s="50" customFormat="1" spans="4:4">
-      <c r="D57" s="51"/>
-    </row>
-    <row r="58" s="50" customFormat="1" spans="4:4">
-      <c r="D58" s="51"/>
-    </row>
-    <row r="59" s="50" customFormat="1" spans="4:4">
-      <c r="D59" s="51"/>
-    </row>
-    <row r="60" s="50" customFormat="1" spans="4:4">
-      <c r="D60" s="51"/>
-    </row>
-    <row r="61" s="50" customFormat="1" spans="4:4">
-      <c r="D61" s="51"/>
-    </row>
-    <row r="62" s="50" customFormat="1" spans="4:4">
-      <c r="D62" s="51"/>
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" s="61" customFormat="1" spans="2:4">
+      <c r="B36" s="66"/>
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" s="61" customFormat="1" spans="4:4">
+      <c r="D37" s="62"/>
+    </row>
+    <row r="38" s="61" customFormat="1" spans="4:4">
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" s="61" customFormat="1" spans="4:4">
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" s="61" customFormat="1" spans="4:4">
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" s="61" customFormat="1" spans="4:4">
+      <c r="D41" s="62"/>
+    </row>
+    <row r="42" s="61" customFormat="1" spans="4:4">
+      <c r="D42" s="62"/>
+    </row>
+    <row r="43" s="61" customFormat="1" spans="4:4">
+      <c r="D43" s="62"/>
+    </row>
+    <row r="44" s="61" customFormat="1" spans="4:4">
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" s="61" customFormat="1" spans="4:4">
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" s="61" customFormat="1" spans="4:4">
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" s="61" customFormat="1" spans="4:4">
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" s="61" customFormat="1" spans="4:4">
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" s="61" customFormat="1" spans="4:4">
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" s="61" customFormat="1" spans="4:4">
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" s="61" customFormat="1" spans="4:4">
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" s="61" customFormat="1" spans="4:4">
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" s="61" customFormat="1" spans="4:4">
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" s="61" customFormat="1" spans="4:4">
+      <c r="D54" s="62"/>
+    </row>
+    <row r="55" s="61" customFormat="1" spans="4:4">
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" s="61" customFormat="1" spans="4:4">
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" s="61" customFormat="1" spans="4:4">
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" s="61" customFormat="1" spans="4:4">
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" s="61" customFormat="1" spans="4:4">
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" s="61" customFormat="1" spans="4:4">
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" s="61" customFormat="1" spans="4:4">
+      <c r="D61" s="62"/>
+    </row>
+    <row r="62" s="61" customFormat="1" spans="4:4">
+      <c r="D62" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4282,8 +4459,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4291,7 +4468,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="79.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="67.4285714285714" style="53" customWidth="1"/>
+    <col min="4" max="4" width="67.4285714285714" style="64" customWidth="1"/>
     <col min="5" max="5" width="38.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
     <col min="7" max="7" width="34.5714285714286" customWidth="1"/>
@@ -4304,16 +4481,16 @@
       <c r="B1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -4322,8 +4499,8 @@
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3"/>
@@ -4358,8 +4535,8 @@
       <c r="B5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -4450,35 +4627,35 @@
       <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="45" t="s">
         <v>149</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" ht="30" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="42" t="s">
         <v>149</v>
       </c>
       <c r="C14" s="3"/>
@@ -4523,7 +4700,7 @@
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="48" t="s">
         <v>154</v>
       </c>
       <c r="C17" s="4"/>
@@ -4531,7 +4708,7 @@
         <v>155</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="45" spans="1:7">
@@ -4587,7 +4764,7 @@
         <v>159</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
@@ -4602,7 +4779,7 @@
         <v>62</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
@@ -4617,7 +4794,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
@@ -4632,7 +4809,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3"/>
@@ -4647,7 +4824,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="3"/>
@@ -4661,7 +4838,7 @@
       <c r="B26" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
@@ -4676,7 +4853,7 @@
       <c r="B27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4691,8 +4868,8 @@
       <c r="B28" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="39" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="3"/>
@@ -4706,8 +4883,8 @@
       <c r="B29" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="3"/>
@@ -4721,8 +4898,8 @@
       <c r="B30" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="3"/>
@@ -4736,8 +4913,8 @@
       <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="64"/>
+      <c r="D31" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="3"/>
@@ -4751,8 +4928,8 @@
       <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="39" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="3"/>
@@ -4766,8 +4943,8 @@
       <c r="B33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="3"/>
@@ -4782,7 +4959,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="3"/>
@@ -4797,11 +4974,11 @@
         <v>71</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="38"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" ht="25" customHeight="1" spans="1:7">
@@ -4812,7 +4989,7 @@
         <v>141</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="50" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="3"/>
@@ -4827,12 +5004,12 @@
         <v>111</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="40"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" customFormat="1" ht="30" spans="1:7">
       <c r="A38" s="3" t="s">
@@ -4842,12 +5019,12 @@
         <v>113</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="40"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" customFormat="1" ht="30" spans="1:7">
       <c r="A39" s="3" t="s">
@@ -4857,12 +5034,12 @@
         <v>143</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="52" t="s">
         <v>144</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="40"/>
+      <c r="G39" s="51"/>
     </row>
     <row r="40" customFormat="1" ht="45" spans="1:7">
       <c r="A40" s="3" t="s">
@@ -4877,147 +5054,147 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="40"/>
-    </row>
-    <row r="41" s="50" customFormat="1" spans="1:7">
+      <c r="G40" s="51"/>
+    </row>
+    <row r="41" s="61" customFormat="1" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" s="47" customFormat="1" ht="30" spans="1:4">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46" t="s">
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" s="58" customFormat="1" ht="30" spans="1:4">
+      <c r="A42" s="56"/>
+      <c r="B42" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A43" s="52"/>
-      <c r="B43" s="49" t="s">
+    <row r="43" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A43" s="63"/>
+      <c r="B43" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A44" s="47"/>
-      <c r="B44" s="49" t="s">
+    <row r="44" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A44" s="58"/>
+      <c r="B44" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="59" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" s="50" customFormat="1" ht="30" spans="1:4">
-      <c r="A45" s="47"/>
-      <c r="B45" s="49" t="s">
+    <row r="45" s="61" customFormat="1" ht="30" spans="1:4">
+      <c r="A45" s="58"/>
+      <c r="B45" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="59" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" s="50" customFormat="1" ht="30" spans="2:4">
-      <c r="B46" s="51" t="s">
+    <row r="46" s="61" customFormat="1" ht="30" spans="2:4">
+      <c r="B46" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="51"/>
-    </row>
-    <row r="47" s="50" customFormat="1" spans="2:4">
-      <c r="B47" s="58"/>
-      <c r="D47" s="51"/>
-    </row>
-    <row r="48" s="50" customFormat="1" spans="4:4">
-      <c r="D48" s="51"/>
-    </row>
-    <row r="49" s="50" customFormat="1" spans="4:4">
-      <c r="D49" s="51"/>
-    </row>
-    <row r="50" s="50" customFormat="1" spans="4:4">
-      <c r="D50" s="51"/>
-    </row>
-    <row r="51" s="50" customFormat="1" spans="4:4">
-      <c r="D51" s="51"/>
-    </row>
-    <row r="52" s="50" customFormat="1" spans="4:4">
-      <c r="D52" s="51"/>
-    </row>
-    <row r="53" s="50" customFormat="1" spans="4:4">
-      <c r="D53" s="51"/>
-    </row>
-    <row r="54" s="50" customFormat="1" spans="4:4">
-      <c r="D54" s="51"/>
-    </row>
-    <row r="55" s="50" customFormat="1" spans="4:4">
-      <c r="D55" s="51"/>
-    </row>
-    <row r="56" s="50" customFormat="1" spans="4:4">
-      <c r="D56" s="51"/>
-    </row>
-    <row r="57" s="50" customFormat="1" spans="4:4">
-      <c r="D57" s="51"/>
-    </row>
-    <row r="58" s="50" customFormat="1" spans="4:4">
-      <c r="D58" s="51"/>
-    </row>
-    <row r="59" s="50" customFormat="1" spans="4:4">
-      <c r="D59" s="51"/>
-    </row>
-    <row r="60" s="50" customFormat="1" spans="4:4">
-      <c r="D60" s="51"/>
-    </row>
-    <row r="61" s="50" customFormat="1" spans="4:4">
-      <c r="D61" s="51"/>
-    </row>
-    <row r="62" s="50" customFormat="1" spans="4:4">
-      <c r="D62" s="51"/>
-    </row>
-    <row r="63" s="50" customFormat="1" spans="4:4">
-      <c r="D63" s="51"/>
-    </row>
-    <row r="64" s="50" customFormat="1" spans="4:4">
-      <c r="D64" s="51"/>
-    </row>
-    <row r="65" s="50" customFormat="1" spans="4:4">
-      <c r="D65" s="51"/>
-    </row>
-    <row r="66" s="50" customFormat="1" spans="4:4">
-      <c r="D66" s="51"/>
-    </row>
-    <row r="67" s="50" customFormat="1" spans="4:4">
-      <c r="D67" s="51"/>
-    </row>
-    <row r="68" s="50" customFormat="1" spans="4:4">
-      <c r="D68" s="51"/>
-    </row>
-    <row r="69" s="50" customFormat="1" spans="4:4">
-      <c r="D69" s="51"/>
-    </row>
-    <row r="70" s="50" customFormat="1" spans="4:4">
-      <c r="D70" s="51"/>
-    </row>
-    <row r="71" s="50" customFormat="1" spans="4:4">
-      <c r="D71" s="51"/>
-    </row>
-    <row r="72" s="50" customFormat="1" spans="4:4">
-      <c r="D72" s="51"/>
-    </row>
-    <row r="73" s="50" customFormat="1" spans="4:4">
-      <c r="D73" s="51"/>
+      <c r="D46" s="62"/>
+    </row>
+    <row r="47" s="61" customFormat="1" spans="2:4">
+      <c r="B47" s="66"/>
+      <c r="D47" s="62"/>
+    </row>
+    <row r="48" s="61" customFormat="1" spans="4:4">
+      <c r="D48" s="62"/>
+    </row>
+    <row r="49" s="61" customFormat="1" spans="4:4">
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" s="61" customFormat="1" spans="4:4">
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" s="61" customFormat="1" spans="4:4">
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" s="61" customFormat="1" spans="4:4">
+      <c r="D52" s="62"/>
+    </row>
+    <row r="53" s="61" customFormat="1" spans="4:4">
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" s="61" customFormat="1" spans="4:4">
+      <c r="D54" s="62"/>
+    </row>
+    <row r="55" s="61" customFormat="1" spans="4:4">
+      <c r="D55" s="62"/>
+    </row>
+    <row r="56" s="61" customFormat="1" spans="4:4">
+      <c r="D56" s="62"/>
+    </row>
+    <row r="57" s="61" customFormat="1" spans="4:4">
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" s="61" customFormat="1" spans="4:4">
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" s="61" customFormat="1" spans="4:4">
+      <c r="D59" s="62"/>
+    </row>
+    <row r="60" s="61" customFormat="1" spans="4:4">
+      <c r="D60" s="62"/>
+    </row>
+    <row r="61" s="61" customFormat="1" spans="4:4">
+      <c r="D61" s="62"/>
+    </row>
+    <row r="62" s="61" customFormat="1" spans="4:4">
+      <c r="D62" s="62"/>
+    </row>
+    <row r="63" s="61" customFormat="1" spans="4:4">
+      <c r="D63" s="62"/>
+    </row>
+    <row r="64" s="61" customFormat="1" spans="4:4">
+      <c r="D64" s="62"/>
+    </row>
+    <row r="65" s="61" customFormat="1" spans="4:4">
+      <c r="D65" s="62"/>
+    </row>
+    <row r="66" s="61" customFormat="1" spans="4:4">
+      <c r="D66" s="62"/>
+    </row>
+    <row r="67" s="61" customFormat="1" spans="4:4">
+      <c r="D67" s="62"/>
+    </row>
+    <row r="68" s="61" customFormat="1" spans="4:4">
+      <c r="D68" s="62"/>
+    </row>
+    <row r="69" s="61" customFormat="1" spans="4:4">
+      <c r="D69" s="62"/>
+    </row>
+    <row r="70" s="61" customFormat="1" spans="4:4">
+      <c r="D70" s="62"/>
+    </row>
+    <row r="71" s="61" customFormat="1" spans="4:4">
+      <c r="D71" s="62"/>
+    </row>
+    <row r="72" s="61" customFormat="1" spans="4:4">
+      <c r="D72" s="62"/>
+    </row>
+    <row r="73" s="61" customFormat="1" spans="4:4">
+      <c r="D73" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5034,8 +5211,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.1428571428571" defaultRowHeight="15"/>
@@ -5053,25 +5230,25 @@
       <c r="B1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:11">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" s="35" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -5083,7 +5260,7 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" s="24" customFormat="1" spans="1:11">
+    <row r="3" s="35" customFormat="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -5098,7 +5275,7 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" s="24" customFormat="1" spans="1:11">
+    <row r="4" s="35" customFormat="1" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5111,15 +5288,15 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:11">
+    <row r="5" s="35" customFormat="1" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5309,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:11">
+    <row r="6" s="35" customFormat="1" spans="1:11">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5151,7 +5328,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" s="24" customFormat="1" spans="1:11">
+    <row r="7" s="35" customFormat="1" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -5166,7 +5343,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" s="24" customFormat="1" ht="60" spans="1:11">
+    <row r="8" s="35" customFormat="1" ht="60" spans="1:11">
       <c r="A8"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -5181,7 +5358,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" s="24" customFormat="1" spans="1:11">
+    <row r="9" s="35" customFormat="1" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -5198,7 +5375,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" s="24" customFormat="1" spans="1:11">
+    <row r="10" s="35" customFormat="1" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5211,63 +5388,63 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:7">
-      <c r="A13" s="30" t="s">
+    <row r="11" s="35" customFormat="1" spans="1:7">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="1:7">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" s="35" customFormat="1" spans="1:7">
+      <c r="A13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:7">
       <c r="A14" s="14"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="45" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" ht="30" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="42" t="s">
         <v>171</v>
       </c>
       <c r="C15" s="3"/>
@@ -5312,7 +5489,7 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="48" t="s">
         <v>175</v>
       </c>
       <c r="C18" s="4"/>
@@ -5320,7 +5497,7 @@
         <v>176</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="135" spans="1:7">
@@ -5346,12 +5523,12 @@
         <v>111</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" ht="30" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -5361,12 +5538,12 @@
         <v>113</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" ht="30" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -5376,12 +5553,12 @@
         <v>143</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="52" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" ht="45" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -5396,7 +5573,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -5405,74 +5582,74 @@
       <c r="B24" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="44"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" ht="60" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" ht="45" spans="1:7">
-      <c r="A26" s="52"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" ht="45" spans="1:7">
-      <c r="A27" s="47"/>
-      <c r="B27" s="49" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" ht="45" spans="1:7">
-      <c r="A28" s="47"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" ht="30" spans="1:7">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5490,7 +5667,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.1428571428571" defaultRowHeight="15"/>
@@ -5508,25 +5685,25 @@
       <c r="B1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:11">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" s="35" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -5538,7 +5715,7 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" s="24" customFormat="1" spans="1:11">
+    <row r="3" s="35" customFormat="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -5553,7 +5730,7 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" s="24" customFormat="1" spans="1:11">
+    <row r="4" s="35" customFormat="1" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5566,15 +5743,15 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:11">
+    <row r="5" s="35" customFormat="1" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -5587,7 +5764,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:11">
+    <row r="6" s="35" customFormat="1" spans="1:11">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -5606,7 +5783,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" s="24" customFormat="1" spans="1:11">
+    <row r="7" s="35" customFormat="1" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -5621,7 +5798,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" s="24" customFormat="1" ht="60" spans="1:11">
+    <row r="8" s="35" customFormat="1" ht="60" spans="1:11">
       <c r="A8"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -5636,7 +5813,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" s="24" customFormat="1" spans="1:11">
+    <row r="9" s="35" customFormat="1" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -5653,7 +5830,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" s="24" customFormat="1" spans="1:11">
+    <row r="10" s="35" customFormat="1" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5666,63 +5843,63 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:7">
-      <c r="A13" s="30" t="s">
+    <row r="11" s="35" customFormat="1" spans="1:7">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="1:7">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" s="35" customFormat="1" spans="1:7">
+      <c r="A13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="30" spans="1:7">
       <c r="A14" s="14"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="45" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" customFormat="1" ht="30" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="42" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="3"/>
@@ -5767,7 +5944,7 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="48" t="s">
         <v>187</v>
       </c>
       <c r="C18" s="4"/>
@@ -5775,7 +5952,7 @@
         <v>188</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" customFormat="1" ht="75" spans="1:7">
@@ -5806,7 +5983,7 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" customFormat="1" ht="120" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -5821,7 +5998,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -5831,12 +6008,12 @@
         <v>193</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" customFormat="1" ht="30" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -5846,12 +6023,12 @@
         <v>194</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -5861,12 +6038,12 @@
         <v>195</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="40"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -5876,12 +6053,12 @@
         <v>68</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" customFormat="1" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -5891,12 +6068,12 @@
         <v>71</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" customFormat="1" ht="30" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -5906,12 +6083,12 @@
         <v>111</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="40"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" customFormat="1" ht="30" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -5921,12 +6098,12 @@
         <v>113</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="40"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" customFormat="1" ht="30" spans="1:7">
       <c r="A29" s="3" t="s">
@@ -5936,12 +6113,12 @@
         <v>143</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="52" t="s">
         <v>144</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="40"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" customFormat="1" ht="45" spans="1:7">
       <c r="A30" s="3" t="s">
@@ -5956,7 +6133,7 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="40"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="3" t="s">
@@ -5965,74 +6142,74 @@
       <c r="B31" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="44"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" customFormat="1" ht="60" spans="1:7">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="52"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" customFormat="1" ht="45" spans="1:7">
-      <c r="A34" s="47"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="58"/>
+      <c r="B34" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" customFormat="1" ht="45" spans="1:7">
-      <c r="A35" s="47"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6049,8 +6226,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.1428571428571" defaultRowHeight="15"/>
@@ -6068,25 +6245,25 @@
       <c r="B1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:11">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+    </row>
+    <row r="2" s="35" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
@@ -6098,7 +6275,7 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" s="24" customFormat="1" spans="1:11">
+    <row r="3" s="35" customFormat="1" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -6113,7 +6290,7 @@
       <c r="J3"/>
       <c r="K3"/>
     </row>
-    <row r="4" s="24" customFormat="1" spans="1:11">
+    <row r="4" s="35" customFormat="1" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6126,15 +6303,15 @@
       <c r="J4"/>
       <c r="K4"/>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:11">
+    <row r="5" s="35" customFormat="1" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -6147,7 +6324,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:11">
+    <row r="6" s="35" customFormat="1" spans="1:11">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -6166,7 +6343,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" s="24" customFormat="1" spans="1:11">
+    <row r="7" s="35" customFormat="1" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -6181,7 +6358,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" s="24" customFormat="1" ht="60" spans="1:11">
+    <row r="8" s="35" customFormat="1" ht="60" spans="1:11">
       <c r="A8"/>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -6196,7 +6373,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" s="24" customFormat="1" spans="1:11">
+    <row r="9" s="35" customFormat="1" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -6213,7 +6390,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" s="24" customFormat="1" spans="1:11">
+    <row r="10" s="35" customFormat="1" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6226,63 +6403,63 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:7">
-      <c r="A13" s="30" t="s">
+    <row r="11" s="35" customFormat="1" spans="1:7">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" s="35" customFormat="1" spans="1:7">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" s="35" customFormat="1" spans="1:7">
+      <c r="A13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="14"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="45" t="s">
         <v>199</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" customFormat="1" ht="30" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="42" t="s">
         <v>200</v>
       </c>
       <c r="C15" s="3"/>
@@ -6327,7 +6504,7 @@
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="48" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="4"/>
@@ -6335,7 +6512,7 @@
         <v>206</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="38"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" customFormat="1" ht="150" spans="1:7">
@@ -6361,12 +6538,12 @@
         <v>208</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -6376,12 +6553,12 @@
         <v>68</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -6391,12 +6568,12 @@
         <v>71</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" customFormat="1" ht="30" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -6406,12 +6583,12 @@
         <v>111</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" customFormat="1" ht="30" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -6421,12 +6598,12 @@
         <v>113</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="40"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" customFormat="1" ht="30" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -6436,12 +6613,12 @@
         <v>143</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="52" t="s">
         <v>144</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="40"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" customFormat="1" ht="45" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -6456,7 +6633,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -6465,48 +6642,48 @@
       <c r="B27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="44"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" customFormat="1" ht="60" spans="1:7">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" customFormat="1" ht="45" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="58"/>
+      <c r="D29" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6519,6 +6696,452 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="24" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="24" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.42857142857143" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="24" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" s="24" customFormat="1" spans="1:7">
+      <c r="A2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" s="24" customFormat="1" spans="1:7">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" s="24" customFormat="1" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" s="24" customFormat="1" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" s="24" customFormat="1" spans="1:7">
+      <c r="A7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" s="24" customFormat="1" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" s="24" customFormat="1" spans="1:7">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" s="24" customFormat="1" spans="1:7">
+      <c r="A12" s="31">
+        <v>2</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A14" s="31">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" s="24" customFormat="1" spans="1:7">
+      <c r="A15" s="31">
+        <v>5</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="31">
+        <v>6</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="31">
+        <v>7</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="31">
+        <v>8</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="31">
+        <v>9</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="31">
+        <v>10</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:7">
+      <c r="A21" s="31">
+        <v>11</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:7">
+      <c r="A22" s="31">
+        <v>12</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:7">
+      <c r="A23" s="31">
+        <v>13</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" s="24" customFormat="1" spans="1:7">
+      <c r="A24" s="31">
+        <v>14</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:7">
+      <c r="A25" s="31">
+        <v>15</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" s="24" customFormat="1" spans="1:7">
+      <c r="A26" s="31">
+        <v>16</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" s="24" customFormat="1" spans="1:7">
+      <c r="A27" s="31">
+        <v>17</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A28" s="31">
+        <v>18</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" s="24" customFormat="1" spans="1:7">
+      <c r="A29" s="31">
+        <v>19</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="31" s="24" customFormat="1" spans="1:1">
+      <c r="A31" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H81"/>
@@ -6542,14 +7165,14 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6560,7 +7183,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
@@ -6600,12 +7223,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -6634,7 +7257,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -6693,7 +7316,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -6706,11 +7329,11 @@
         <v>37</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6721,11 +7344,11 @@
         <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6736,11 +7359,11 @@
         <v>43</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6760,7 +7383,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -6773,11 +7396,11 @@
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6788,11 +7411,11 @@
         <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6803,11 +7426,11 @@
         <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6818,11 +7441,11 @@
         <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6831,7 +7454,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -6844,11 +7467,11 @@
         <v>64</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -6857,7 +7480,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -6870,11 +7493,11 @@
         <v>67</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -6885,11 +7508,11 @@
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -6900,11 +7523,11 @@
         <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -6915,7 +7538,7 @@
         <v>75</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -6928,7 +7551,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -6939,7 +7562,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -6952,11 +7575,11 @@
         <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -6967,11 +7590,11 @@
         <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -6982,11 +7605,11 @@
         <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -6997,11 +7620,11 @@
         <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7012,11 +7635,11 @@
         <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7027,11 +7650,11 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7042,11 +7665,11 @@
         <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7057,11 +7680,11 @@
         <v>93</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -7072,11 +7695,11 @@
         <v>95</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -7087,11 +7710,11 @@
         <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -7102,11 +7725,11 @@
         <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7117,11 +7740,11 @@
         <v>99</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -7132,11 +7755,11 @@
         <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -7147,11 +7770,11 @@
         <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -7162,11 +7785,11 @@
         <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -7177,7 +7800,7 @@
         <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -7190,11 +7813,11 @@
         <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -7202,10 +7825,10 @@
     </row>
     <row r="49" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -7215,14 +7838,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -7230,10 +7853,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -7243,10 +7866,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -7256,10 +7879,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -7269,10 +7892,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -7292,7 +7915,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -7302,14 +7925,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7327,7 +7950,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -7337,14 +7960,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -7352,14 +7975,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -7367,14 +7990,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -7382,31 +8005,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -7414,14 +8037,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -7429,14 +8052,14 @@
     </row>
     <row r="66" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -7444,14 +8067,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -7459,14 +8082,14 @@
     </row>
     <row r="68" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -7474,14 +8097,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -7489,14 +8112,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -7504,14 +8127,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -7519,14 +8142,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -7534,14 +8157,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -7549,14 +8172,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -7564,14 +8187,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -7579,14 +8202,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7594,14 +8217,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -7610,7 +8233,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7620,14 +8243,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -7635,14 +8258,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -7650,14 +8273,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/WSC/Test Cases/Counselling/WSC COUNSELLING Test Cases.xlsx
+++ b/WSC/Test Cases/Counselling/WSC COUNSELLING Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9024" tabRatio="599" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="411">
   <si>
     <t>Contents</t>
   </si>
@@ -30,125 +30,37 @@
     <t>Masters</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Counselling Structure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Center Selection Master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Entrance Exam Declaration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Entrance Exam Center Allocation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Admit Card Generation Tool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Entrance Exam Admit Card</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Entrance Exam Result Publication</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Rank Card Publication Masters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Rank Card</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Rank Card Publication Tool</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Program Enrolment</t>
-    </r>
+    <t>Counselling Structure</t>
+  </si>
+  <si>
+    <t>Center Selection Master</t>
+  </si>
+  <si>
+    <t>Entrance Exam Declaration</t>
+  </si>
+  <si>
+    <t>Entrance Exam Center Allocation</t>
+  </si>
+  <si>
+    <t>Admit Card Generation Tool</t>
+  </si>
+  <si>
+    <t>Entrance Exam Admit Card</t>
+  </si>
+  <si>
+    <t>Entrance Exam Result Publication</t>
+  </si>
+  <si>
+    <t>Rank Card Publication Masters</t>
+  </si>
+  <si>
+    <t>Rank Card</t>
+  </si>
+  <si>
+    <t>Rank Card Publication Tool</t>
+  </si>
+  <si>
+    <t>Program Enrolment</t>
   </si>
   <si>
     <t>Test Case ID</t>
@@ -160,7 +72,7 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Test SLCM_Counselling Module</t>
+    <t>A screen used for setting up counselling eligibility , marks cutoff , programs for which counselling will be held and document needed for an upcoming counselling session</t>
   </si>
   <si>
     <t>Created By</t>
@@ -193,10 +105,12 @@
     <t>Different user credentials should be used :- SLCM Admin,Tainer,Student</t>
   </si>
   <si>
-    <t>Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com//app/infrastructure
-User ID: Administrator
-Password: admin</t>
+    <t>The system should have records in the following screen
+1.Academic Year
+2.Programs
+3.Departments
+4.Student Category
+5.Document Template</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -217,7 +131,7 @@
     <t>Actual Results</t>
   </si>
   <si>
-    <t>Pass/Fail/Not Executed/Suspended</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Comment</t>
@@ -494,13 +408,14 @@
 </t>
   </si>
   <si>
-    <t>Admission  Module</t>
-  </si>
-  <si>
-    <t>Credential for Infrastructure super admin:
-URL: https://soulwsc.eduleadonline.com/app/infrastructure
-User ID: Administrator
-Password: admin</t>
+    <t>A screen where information regarding exams are stored , like exam date, academic year , term and applicants list</t>
+  </si>
+  <si>
+    <t>The system should have records in the following screen
+1.Academic Year
+2.Academic Term
+3.Student Applicants
+4.Departments</t>
   </si>
   <si>
     <t>Verify the Admission &gt; Exam Centre module.</t>
@@ -619,7 +534,22 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">TC2_Entrance Exam Center Allocation
+</t>
+  </si>
+  <si>
+    <t>A screen where the information's regarding exam location such as center name, address, date and time, the invigilators name, etc are captured for entrance exam.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>The system should have records in the following screen
+1.Academic Year
+2.Academic Term
+3.Student Applicants
+4.Entrance Exam Center Master
+5.Employee</t>
   </si>
   <si>
     <t>Home &gt; Admission &gt; Master and Application&gt; Entrance Exam &gt; Entrance Exam Centre Allocation</t>
@@ -716,7 +646,16 @@
     <t>Test SLCM_Exam Module</t>
   </si>
   <si>
+    <t>Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com//app/infrastructure
+User ID: Administrator
+Password: admin</t>
+  </si>
+  <si>
     <t>Verify the Entrance Exam module module.</t>
+  </si>
+  <si>
+    <t>Pass/Fail/Not Executed/Suspended</t>
   </si>
   <si>
     <t xml:space="preserve">Home &gt; Admission &gt; Master and Application&gt; Entrance Exam &gt; Entrance Exam Cetre Master </t>
@@ -785,6 +724,15 @@
   </si>
   <si>
     <t xml:space="preserve">TC4_Entrance Exam Centre Selection </t>
+  </si>
+  <si>
+    <t>A screen where information regarding are exam centers that will be used for the upcoming entrance exams are stored</t>
+  </si>
+  <si>
+    <t>The system should have records in the following screen
+1.Academic Year
+2.Student Applicants
+Center Master</t>
   </si>
   <si>
     <t xml:space="preserve">Home &gt; Admission &gt; Selection  and Application&gt; Entrance Exam &gt; Entrance Exam Cetre Selection  </t>
@@ -2066,7 +2014,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2161,36 +2109,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2313,7 +2231,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2325,34 +2243,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2437,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2536,9 +2454,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2573,6 +2488,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2582,6 +2518,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2591,16 +2536,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
@@ -2933,108 +2877,111 @@
   <sheetPr/>
   <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.72222222222222" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="43.3619047619048" customWidth="1"/>
-    <col min="3" max="3" width="24.3619047619048" customWidth="1"/>
-    <col min="4" max="4" width="23.0952380952381" customWidth="1"/>
+    <col min="1" max="1" width="20.2777777777778" customWidth="1"/>
+    <col min="2" max="2" width="43.3611111111111" customWidth="1"/>
+    <col min="3" max="3" width="24.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="23.0925925925926" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6380952380952" customWidth="1"/>
-    <col min="10" max="10" width="15.7238095238095" customWidth="1"/>
-    <col min="11" max="11" width="14.4571428571429" customWidth="1"/>
-    <col min="12" max="12" width="20.2761904761905" customWidth="1"/>
+    <col min="8" max="8" width="14.6388888888889" customWidth="1"/>
+    <col min="10" max="10" width="15.7222222222222" customWidth="1"/>
+    <col min="11" max="11" width="14.4537037037037" customWidth="1"/>
+    <col min="12" max="12" width="20.2777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="81"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:12">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="77"/>
-    </row>
-    <row r="5" ht="75" customHeight="1" spans="2:12">
-      <c r="B5" s="75" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="87"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" ht="15.75" spans="2:2">
-      <c r="B6" s="76" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:2">
-      <c r="B7" s="76" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" s="86" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:2">
-      <c r="B8" s="76" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="2:2">
-      <c r="B9" s="76" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="86" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:2">
-      <c r="B10" s="76" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="86" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="2:2">
-      <c r="B11" s="76" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="2:2">
-      <c r="B12" s="76" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="2:2">
-      <c r="B13" s="76" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="2:2">
-      <c r="B14" s="76" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="2:2">
-      <c r="B15" s="76" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="86" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3050,48 +2997,48 @@
   <sheetPr/>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72222222222222" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
-    <col min="2" max="2" width="107.571428571429" customWidth="1"/>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="64.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="29.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="65.9047619047619" customWidth="1"/>
-    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="22.2777777777778" customWidth="1"/>
+    <col min="2" max="2" width="62.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="10.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="64.8611111111111" customWidth="1"/>
+    <col min="5" max="5" width="61.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="65.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="20.8611111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="86.4" spans="1:8">
+      <c r="A1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="63" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="36"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="66" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3"/>
@@ -3100,10 +3047,10 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" ht="14.5" customHeight="1" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3129,18 +3076,17 @@
         <v>22</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3148,15 +3094,16 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
+      <c r="A7" s="67">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3167,7 +3114,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="60" spans="2:8">
+    <row r="8" ht="86.4" spans="1:8">
+      <c r="A8" s="68">
+        <v>3</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3228,10 +3178,10 @@
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="71" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3240,7 +3190,7 @@
       <c r="B13" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="47"/>
@@ -3303,7 +3253,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="68"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
@@ -3359,7 +3309,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
@@ -3373,8 +3323,8 @@
       <c r="B22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
@@ -3389,7 +3339,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
@@ -3404,7 +3354,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3"/>
@@ -3419,7 +3369,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="3"/>
@@ -3464,7 +3414,7 @@
         <v>79</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="3"/>
@@ -3479,7 +3429,7 @@
         <v>81</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="3"/>
@@ -3494,7 +3444,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="3"/>
@@ -3509,7 +3459,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="3"/>
@@ -3524,7 +3474,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="3"/>
@@ -3569,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="3"/>
@@ -3584,7 +3534,7 @@
         <v>94</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E36" s="3"/>
@@ -3599,7 +3549,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E37" s="3"/>
@@ -3614,7 +3564,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="3"/>
@@ -3629,7 +3579,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="3"/>
@@ -3674,7 +3624,7 @@
         <v>105</v>
       </c>
       <c r="C42" s="15"/>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="3"/>
@@ -3689,7 +3639,7 @@
         <v>107</v>
       </c>
       <c r="C43" s="15"/>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="3"/>
@@ -3704,7 +3654,7 @@
         <v>109</v>
       </c>
       <c r="C44" s="15"/>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E44" s="3"/>
@@ -3719,7 +3669,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E45" s="3"/>
@@ -3734,14 +3684,14 @@
         <v>71</v>
       </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" ht="30" spans="1:7">
+    <row r="47" ht="28.8" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
@@ -3749,7 +3699,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E47" s="3"/>
@@ -3764,100 +3714,99 @@
         <v>113</v>
       </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="51"/>
-    </row>
-    <row r="49" s="61" customFormat="1" spans="1:7">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="55"/>
+      <c r="G48" s="50"/>
+    </row>
+    <row r="49" s="60" customFormat="1" spans="1:7">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" s="61" customFormat="1" spans="1:7">
+      <c r="G49" s="54"/>
+    </row>
+    <row r="50" s="60" customFormat="1" spans="1:7">
       <c r="A50" s="20" t="s">
         <v>114</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="55"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" s="58" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57" t="s">
+      <c r="G50" s="54"/>
+    </row>
+    <row r="51" s="57" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A51" s="55"/>
+      <c r="B51" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A52" s="63"/>
-      <c r="B52" s="60" t="s">
+    <row r="52" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A52" s="69"/>
+      <c r="B52" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="59" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A53" s="58"/>
-      <c r="B53" s="60" t="s">
+    <row r="53" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A53" s="57"/>
+      <c r="B53" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="59" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A54" s="58"/>
-      <c r="B54" s="60" t="s">
+    <row r="54" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A54" s="57"/>
+      <c r="B54" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="55" s="61" customFormat="1"/>
-    <row r="56" s="61" customFormat="1"/>
-    <row r="57" s="61" customFormat="1"/>
-    <row r="58" s="61" customFormat="1"/>
-    <row r="59" s="61" customFormat="1"/>
-    <row r="60" s="61" customFormat="1"/>
-    <row r="61" s="61" customFormat="1"/>
-    <row r="62" s="61" customFormat="1"/>
-    <row r="63" s="61" customFormat="1"/>
-    <row r="64" s="61" customFormat="1"/>
-    <row r="65" s="61" customFormat="1"/>
-    <row r="66" s="61" customFormat="1"/>
-    <row r="67" s="61" customFormat="1"/>
-    <row r="68" s="61" customFormat="1"/>
-    <row r="69" s="61" customFormat="1"/>
-    <row r="70" s="61" customFormat="1"/>
-    <row r="71" s="61" customFormat="1"/>
-    <row r="72" s="61" customFormat="1"/>
-    <row r="73" s="61" customFormat="1"/>
-    <row r="74" s="61" customFormat="1"/>
-    <row r="75" s="61" customFormat="1"/>
-    <row r="76" s="61" customFormat="1"/>
-    <row r="77" s="61" customFormat="1"/>
+    <row r="55" s="60" customFormat="1"/>
+    <row r="56" s="60" customFormat="1"/>
+    <row r="57" s="60" customFormat="1"/>
+    <row r="58" s="60" customFormat="1"/>
+    <row r="59" s="60" customFormat="1"/>
+    <row r="60" s="60" customFormat="1"/>
+    <row r="61" s="60" customFormat="1"/>
+    <row r="62" s="60" customFormat="1"/>
+    <row r="63" s="60" customFormat="1"/>
+    <row r="64" s="60" customFormat="1"/>
+    <row r="65" s="60" customFormat="1"/>
+    <row r="66" s="60" customFormat="1"/>
+    <row r="67" s="60" customFormat="1"/>
+    <row r="68" s="60" customFormat="1"/>
+    <row r="69" s="60" customFormat="1"/>
+    <row r="70" s="60" customFormat="1"/>
+    <row r="71" s="60" customFormat="1"/>
+    <row r="72" s="60" customFormat="1"/>
+    <row r="73" s="60" customFormat="1"/>
+    <row r="74" s="60" customFormat="1"/>
+    <row r="75" s="60" customFormat="1"/>
+    <row r="76" s="60" customFormat="1"/>
+    <row r="77" s="60" customFormat="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3871,48 +3820,48 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72222222222222" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="79.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="67.4285714285714" style="64" customWidth="1"/>
-    <col min="5" max="5" width="38.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="34.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="79.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="67.4259259259259" style="70" customWidth="1"/>
+    <col min="5" max="5" width="38.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="15.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="34.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="43.2" spans="1:8">
+      <c r="A1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="63" t="s">
         <v>123</v>
       </c>
       <c r="C1" s="36"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="66" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="73" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3"/>
@@ -3959,7 +3908,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="74">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3973,7 +3922,9 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
+      <c r="A7" s="74">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3984,7 +3935,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="60" spans="2:8">
+    <row r="8" ht="72" spans="1:8">
+      <c r="A8" s="75">
+        <v>3</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>125</v>
       </c>
@@ -4045,10 +3999,10 @@
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="71" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4123,7 +4077,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="135" spans="1:7">
+    <row r="18" ht="129.6" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -4176,7 +4130,7 @@
         <v>139</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
@@ -4190,8 +4144,8 @@
       <c r="B22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
@@ -4206,7 +4160,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="3"/>
@@ -4221,7 +4175,7 @@
         <v>71</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="3"/>
@@ -4236,14 +4190,14 @@
         <v>141</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" customFormat="1" ht="30" spans="1:7">
+    <row r="26" customFormat="1" ht="28.8" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
@@ -4251,14 +4205,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" customFormat="1" ht="30" spans="1:7">
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -4266,14 +4220,14 @@
         <v>113</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="51"/>
-    </row>
-    <row r="28" customFormat="1" ht="30" spans="1:7">
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" customFormat="1" ht="28.8" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
@@ -4281,14 +4235,14 @@
         <v>143</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="51" t="s">
         <v>144</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" customFormat="1" ht="45" spans="1:7">
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" customFormat="1" ht="43.2" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
@@ -4301,151 +4255,150 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="51"/>
-    </row>
-    <row r="30" s="61" customFormat="1" spans="1:7">
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" s="60" customFormat="1" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="58" customFormat="1" ht="30" spans="1:4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57" t="s">
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" s="57" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A32" s="63"/>
-      <c r="B32" s="60" t="s">
+    <row r="32" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A32" s="69"/>
+      <c r="B32" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A33" s="58"/>
-      <c r="B33" s="60" t="s">
+    <row r="33" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A33" s="57"/>
+      <c r="B33" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A34" s="58"/>
-      <c r="B34" s="60" t="s">
+    <row r="34" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A34" s="57"/>
+      <c r="B34" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" s="61" customFormat="1" ht="30" spans="2:4">
-      <c r="B35" s="62" t="s">
+    <row r="35" s="60" customFormat="1" ht="28.8" spans="2:4">
+      <c r="B35" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="62"/>
-    </row>
-    <row r="36" s="61" customFormat="1" spans="2:4">
-      <c r="B36" s="66"/>
-      <c r="D36" s="62"/>
-    </row>
-    <row r="37" s="61" customFormat="1" spans="4:4">
-      <c r="D37" s="62"/>
-    </row>
-    <row r="38" s="61" customFormat="1" spans="4:4">
-      <c r="D38" s="62"/>
-    </row>
-    <row r="39" s="61" customFormat="1" spans="4:4">
-      <c r="D39" s="62"/>
-    </row>
-    <row r="40" s="61" customFormat="1" spans="4:4">
-      <c r="D40" s="62"/>
-    </row>
-    <row r="41" s="61" customFormat="1" spans="4:4">
-      <c r="D41" s="62"/>
-    </row>
-    <row r="42" s="61" customFormat="1" spans="4:4">
-      <c r="D42" s="62"/>
-    </row>
-    <row r="43" s="61" customFormat="1" spans="4:4">
-      <c r="D43" s="62"/>
-    </row>
-    <row r="44" s="61" customFormat="1" spans="4:4">
-      <c r="D44" s="62"/>
-    </row>
-    <row r="45" s="61" customFormat="1" spans="4:4">
-      <c r="D45" s="62"/>
-    </row>
-    <row r="46" s="61" customFormat="1" spans="4:4">
-      <c r="D46" s="62"/>
-    </row>
-    <row r="47" s="61" customFormat="1" spans="4:4">
-      <c r="D47" s="62"/>
-    </row>
-    <row r="48" s="61" customFormat="1" spans="4:4">
-      <c r="D48" s="62"/>
-    </row>
-    <row r="49" s="61" customFormat="1" spans="4:4">
-      <c r="D49" s="62"/>
-    </row>
-    <row r="50" s="61" customFormat="1" spans="4:4">
-      <c r="D50" s="62"/>
-    </row>
-    <row r="51" s="61" customFormat="1" spans="4:4">
-      <c r="D51" s="62"/>
-    </row>
-    <row r="52" s="61" customFormat="1" spans="4:4">
-      <c r="D52" s="62"/>
-    </row>
-    <row r="53" s="61" customFormat="1" spans="4:4">
-      <c r="D53" s="62"/>
-    </row>
-    <row r="54" s="61" customFormat="1" spans="4:4">
-      <c r="D54" s="62"/>
-    </row>
-    <row r="55" s="61" customFormat="1" spans="4:4">
-      <c r="D55" s="62"/>
-    </row>
-    <row r="56" s="61" customFormat="1" spans="4:4">
-      <c r="D56" s="62"/>
-    </row>
-    <row r="57" s="61" customFormat="1" spans="4:4">
-      <c r="D57" s="62"/>
-    </row>
-    <row r="58" s="61" customFormat="1" spans="4:4">
-      <c r="D58" s="62"/>
-    </row>
-    <row r="59" s="61" customFormat="1" spans="4:4">
-      <c r="D59" s="62"/>
-    </row>
-    <row r="60" s="61" customFormat="1" spans="4:4">
-      <c r="D60" s="62"/>
-    </row>
-    <row r="61" s="61" customFormat="1" spans="4:4">
-      <c r="D61" s="62"/>
-    </row>
-    <row r="62" s="61" customFormat="1" spans="4:4">
-      <c r="D62" s="62"/>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" s="60" customFormat="1" spans="2:4">
+      <c r="B36" s="72"/>
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" s="60" customFormat="1" spans="4:4">
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" s="60" customFormat="1" spans="4:4">
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" s="60" customFormat="1" spans="4:4">
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" s="60" customFormat="1" spans="4:4">
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" s="60" customFormat="1" spans="4:4">
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" s="60" customFormat="1" spans="4:4">
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" s="60" customFormat="1" spans="4:4">
+      <c r="D43" s="61"/>
+    </row>
+    <row r="44" s="60" customFormat="1" spans="4:4">
+      <c r="D44" s="61"/>
+    </row>
+    <row r="45" s="60" customFormat="1" spans="4:4">
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" s="60" customFormat="1" spans="4:4">
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" s="60" customFormat="1" spans="4:4">
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" s="60" customFormat="1" spans="4:4">
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" s="60" customFormat="1" spans="4:4">
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" s="60" customFormat="1" spans="4:4">
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" s="60" customFormat="1" spans="4:4">
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" s="60" customFormat="1" spans="4:4">
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" s="60" customFormat="1" spans="4:4">
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" s="60" customFormat="1" spans="4:4">
+      <c r="D54" s="61"/>
+    </row>
+    <row r="55" s="60" customFormat="1" spans="4:4">
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" s="60" customFormat="1" spans="4:4">
+      <c r="D56" s="61"/>
+    </row>
+    <row r="57" s="60" customFormat="1" spans="4:4">
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" s="60" customFormat="1" spans="4:4">
+      <c r="D58" s="61"/>
+    </row>
+    <row r="59" s="60" customFormat="1" spans="4:4">
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" s="60" customFormat="1" spans="4:4">
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" s="60" customFormat="1" spans="4:4">
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" s="60" customFormat="1" spans="4:4">
+      <c r="D62" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4459,38 +4412,38 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72222222222222" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="79.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="67.4285714285714" style="64" customWidth="1"/>
-    <col min="5" max="5" width="38.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="34.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="79.8611111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="67.4259259259259" style="70" customWidth="1"/>
+    <col min="5" max="5" width="38.712962962963" customWidth="1"/>
+    <col min="6" max="6" width="15.4259259259259" customWidth="1"/>
+    <col min="7" max="7" width="34.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:8">
+    <row r="1" ht="57.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="E1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -4533,21 +4486,20 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="29"/>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4561,7 +4513,9 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
+      <c r="A7" s="67">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -4572,9 +4526,12 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="60" spans="2:8">
+    <row r="8" ht="86.4" spans="1:8">
+      <c r="A8" s="68">
+        <v>3</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -4633,17 +4590,17 @@
       <c r="E12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="71" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="46"/>
@@ -4651,16 +4608,16 @@
       <c r="F13" s="47"/>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" ht="30" spans="1:7">
+    <row r="14" ht="28.8" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
@@ -4671,11 +4628,11 @@
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
@@ -4686,11 +4643,11 @@
         <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
@@ -4701,22 +4658,22 @@
         <v>46</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="49"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="45" spans="1:7">
+    <row r="18" ht="43.2" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
@@ -4731,7 +4688,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -4746,7 +4703,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -4761,10 +4718,10 @@
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3"/>
@@ -4779,7 +4736,7 @@
         <v>62</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="3"/>
@@ -4791,10 +4748,10 @@
         <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="3"/>
@@ -4809,7 +4766,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3"/>
@@ -4824,7 +4781,7 @@
         <v>71</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="3"/>
@@ -4836,9 +4793,9 @@
         <v>73</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="64"/>
+        <v>164</v>
+      </c>
+      <c r="C26" s="70"/>
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
@@ -4851,9 +4808,9 @@
         <v>75</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="64"/>
+        <v>165</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4866,10 +4823,10 @@
         <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="3"/>
@@ -4881,10 +4838,10 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="3"/>
@@ -4896,10 +4853,10 @@
         <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="70"/>
+      <c r="D30" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="3"/>
@@ -4913,8 +4870,8 @@
       <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="70"/>
+      <c r="D31" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="3"/>
@@ -4928,8 +4885,8 @@
       <c r="B32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="50" t="s">
+      <c r="C32" s="70"/>
+      <c r="D32" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="3"/>
@@ -4943,8 +4900,8 @@
       <c r="B33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="50" t="s">
+      <c r="C33" s="70"/>
+      <c r="D33" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="3"/>
@@ -4959,7 +4916,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="3"/>
@@ -4974,7 +4931,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="3"/>
@@ -4989,14 +4946,14 @@
         <v>141</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" customFormat="1" ht="30" spans="1:7">
+    <row r="37" customFormat="1" ht="28.8" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -5004,14 +4961,14 @@
         <v>111</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="51"/>
-    </row>
-    <row r="38" customFormat="1" ht="30" spans="1:7">
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" customFormat="1" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -5019,14 +4976,14 @@
         <v>113</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="51"/>
-    </row>
-    <row r="39" customFormat="1" ht="30" spans="1:7">
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" customFormat="1" ht="28.8" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>98</v>
       </c>
@@ -5034,171 +4991,170 @@
         <v>143</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="51" t="s">
         <v>144</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" customFormat="1" ht="45" spans="1:7">
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" customFormat="1" ht="43.2" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" s="61" customFormat="1" spans="1:7">
+      <c r="G40" s="50"/>
+    </row>
+    <row r="41" s="60" customFormat="1" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" s="58" customFormat="1" ht="30" spans="1:4">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57" t="s">
+      <c r="G41" s="54"/>
+    </row>
+    <row r="42" s="57" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A42" s="55"/>
+      <c r="B42" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A43" s="63"/>
-      <c r="B43" s="60" t="s">
+    <row r="43" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A43" s="69"/>
+      <c r="B43" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="58" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A44" s="58"/>
-      <c r="B44" s="60" t="s">
+    <row r="44" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A44" s="57"/>
+      <c r="B44" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" s="61" customFormat="1" ht="30" spans="1:4">
-      <c r="A45" s="58"/>
-      <c r="B45" s="60" t="s">
+    <row r="45" s="60" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A45" s="57"/>
+      <c r="B45" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59" t="s">
+      <c r="C45" s="57"/>
+      <c r="D45" s="58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" s="61" customFormat="1" ht="30" spans="2:4">
-      <c r="B46" s="62" t="s">
+    <row r="46" s="60" customFormat="1" ht="28.8" spans="2:4">
+      <c r="B46" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="62"/>
-    </row>
-    <row r="47" s="61" customFormat="1" spans="2:4">
-      <c r="B47" s="66"/>
-      <c r="D47" s="62"/>
-    </row>
-    <row r="48" s="61" customFormat="1" spans="4:4">
-      <c r="D48" s="62"/>
-    </row>
-    <row r="49" s="61" customFormat="1" spans="4:4">
-      <c r="D49" s="62"/>
-    </row>
-    <row r="50" s="61" customFormat="1" spans="4:4">
-      <c r="D50" s="62"/>
-    </row>
-    <row r="51" s="61" customFormat="1" spans="4:4">
-      <c r="D51" s="62"/>
-    </row>
-    <row r="52" s="61" customFormat="1" spans="4:4">
-      <c r="D52" s="62"/>
-    </row>
-    <row r="53" s="61" customFormat="1" spans="4:4">
-      <c r="D53" s="62"/>
-    </row>
-    <row r="54" s="61" customFormat="1" spans="4:4">
-      <c r="D54" s="62"/>
-    </row>
-    <row r="55" s="61" customFormat="1" spans="4:4">
-      <c r="D55" s="62"/>
-    </row>
-    <row r="56" s="61" customFormat="1" spans="4:4">
-      <c r="D56" s="62"/>
-    </row>
-    <row r="57" s="61" customFormat="1" spans="4:4">
-      <c r="D57" s="62"/>
-    </row>
-    <row r="58" s="61" customFormat="1" spans="4:4">
-      <c r="D58" s="62"/>
-    </row>
-    <row r="59" s="61" customFormat="1" spans="4:4">
-      <c r="D59" s="62"/>
-    </row>
-    <row r="60" s="61" customFormat="1" spans="4:4">
-      <c r="D60" s="62"/>
-    </row>
-    <row r="61" s="61" customFormat="1" spans="4:4">
-      <c r="D61" s="62"/>
-    </row>
-    <row r="62" s="61" customFormat="1" spans="4:4">
-      <c r="D62" s="62"/>
-    </row>
-    <row r="63" s="61" customFormat="1" spans="4:4">
-      <c r="D63" s="62"/>
-    </row>
-    <row r="64" s="61" customFormat="1" spans="4:4">
-      <c r="D64" s="62"/>
-    </row>
-    <row r="65" s="61" customFormat="1" spans="4:4">
-      <c r="D65" s="62"/>
-    </row>
-    <row r="66" s="61" customFormat="1" spans="4:4">
-      <c r="D66" s="62"/>
-    </row>
-    <row r="67" s="61" customFormat="1" spans="4:4">
-      <c r="D67" s="62"/>
-    </row>
-    <row r="68" s="61" customFormat="1" spans="4:4">
-      <c r="D68" s="62"/>
-    </row>
-    <row r="69" s="61" customFormat="1" spans="4:4">
-      <c r="D69" s="62"/>
-    </row>
-    <row r="70" s="61" customFormat="1" spans="4:4">
-      <c r="D70" s="62"/>
-    </row>
-    <row r="71" s="61" customFormat="1" spans="4:4">
-      <c r="D71" s="62"/>
-    </row>
-    <row r="72" s="61" customFormat="1" spans="4:4">
-      <c r="D72" s="62"/>
-    </row>
-    <row r="73" s="61" customFormat="1" spans="4:4">
-      <c r="D73" s="62"/>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" s="60" customFormat="1" spans="2:4">
+      <c r="B47" s="72"/>
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" s="60" customFormat="1" spans="4:4">
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" s="60" customFormat="1" spans="4:4">
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" s="60" customFormat="1" spans="4:4">
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" s="60" customFormat="1" spans="4:4">
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" s="60" customFormat="1" spans="4:4">
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" s="60" customFormat="1" spans="4:4">
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" s="60" customFormat="1" spans="4:4">
+      <c r="D54" s="61"/>
+    </row>
+    <row r="55" s="60" customFormat="1" spans="4:4">
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" s="60" customFormat="1" spans="4:4">
+      <c r="D56" s="61"/>
+    </row>
+    <row r="57" s="60" customFormat="1" spans="4:4">
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" s="60" customFormat="1" spans="4:4">
+      <c r="D58" s="61"/>
+    </row>
+    <row r="59" s="60" customFormat="1" spans="4:4">
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" s="60" customFormat="1" spans="4:4">
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" s="60" customFormat="1" spans="4:4">
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" s="60" customFormat="1" spans="4:4">
+      <c r="D62" s="61"/>
+    </row>
+    <row r="63" s="60" customFormat="1" spans="4:4">
+      <c r="D63" s="61"/>
+    </row>
+    <row r="64" s="60" customFormat="1" spans="4:4">
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" s="60" customFormat="1" spans="4:4">
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" s="60" customFormat="1" spans="4:4">
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" s="60" customFormat="1" spans="4:4">
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" s="60" customFormat="1" spans="4:4">
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" s="60" customFormat="1" spans="4:4">
+      <c r="D69" s="61"/>
+    </row>
+    <row r="70" s="60" customFormat="1" spans="4:4">
+      <c r="D70" s="61"/>
+    </row>
+    <row r="71" s="60" customFormat="1" spans="4:4">
+      <c r="D71" s="61"/>
+    </row>
+    <row r="72" s="60" customFormat="1" spans="4:4">
+      <c r="D72" s="61"/>
+    </row>
+    <row r="73" s="60" customFormat="1" spans="4:4">
+      <c r="D73" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5212,15 +5168,15 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.1428571428571" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.1388888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="78.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="23.5714285714286" customWidth="1"/>
-    <col min="4" max="16384" width="45.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="23.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="78.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="23.5740740740741" customWidth="1"/>
+    <col min="4" max="16384" width="45.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5228,14 +5184,14 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -5310,7 +5266,7 @@
       <c r="K5"/>
     </row>
     <row r="6" s="35" customFormat="1" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5329,7 +5285,9 @@
       <c r="K6"/>
     </row>
     <row r="7" s="35" customFormat="1" spans="1:11">
-      <c r="A7" s="3"/>
+      <c r="A7" s="67">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -5343,10 +5301,12 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" s="35" customFormat="1" ht="60" spans="1:11">
-      <c r="A8"/>
+    <row r="8" s="35" customFormat="1" ht="57.6" spans="1:11">
+      <c r="A8" s="68">
+        <v>3</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5363,7 +5323,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5423,16 +5383,16 @@
         <v>33</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="45" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="46"/>
@@ -5440,27 +5400,27 @@
       <c r="F14" s="47"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" ht="30" spans="1:7">
+    <row r="15" ht="28.8" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" ht="30" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
@@ -5470,12 +5430,12 @@
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" ht="45" spans="1:7">
+    <row r="17" ht="43.2" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
@@ -5485,27 +5445,27 @@
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="135" spans="1:7">
+    <row r="18" ht="129.6" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="135" spans="1:7">
+    <row r="19" ht="129.6" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -5515,7 +5475,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" ht="30" spans="1:7">
+    <row r="20" ht="28.8" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -5523,14 +5483,14 @@
         <v>111</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" ht="30" spans="1:7">
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
@@ -5538,14 +5498,14 @@
         <v>113</v>
       </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="51"/>
-    </row>
-    <row r="22" ht="30" spans="1:7">
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" ht="28.8" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -5553,19 +5513,19 @@
         <v>143</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="51" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" ht="45" spans="1:7">
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" ht="43.2" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="19" t="s">
@@ -5573,7 +5533,7 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -5582,74 +5542,74 @@
       <c r="B24" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" ht="60" spans="1:7">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57" t="s">
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" ht="57.6" spans="1:7">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-    </row>
-    <row r="26" ht="45" spans="1:7">
-      <c r="A26" s="63"/>
-      <c r="B26" s="60" t="s">
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:7">
+      <c r="A26" s="69"/>
+      <c r="B26" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-    </row>
-    <row r="27" ht="45" spans="1:7">
-      <c r="A27" s="58"/>
-      <c r="B27" s="60" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" ht="43.2" spans="1:7">
+      <c r="A27" s="57"/>
+      <c r="B27" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" ht="45" spans="1:7">
-      <c r="A28" s="58"/>
-      <c r="B28" s="60" t="s">
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" ht="43.2" spans="1:7">
+      <c r="A28" s="57"/>
+      <c r="B28" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-    </row>
-    <row r="29" ht="30" spans="1:7">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62" t="s">
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" ht="28.8" spans="1:7">
+      <c r="A29" s="60"/>
+      <c r="B29" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5666,45 +5626,45 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.1428571428571" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.1388888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="78.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="23.5714285714286" customWidth="1"/>
-    <col min="4" max="16384" width="45.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="23.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="75.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="23.5740740740741" customWidth="1"/>
+    <col min="4" max="16384" width="45.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>179</v>
+      <c r="B1" s="63" t="s">
+        <v>184</v>
       </c>
       <c r="C1" s="36"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="E1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" s="35" customFormat="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="66" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3"/>
@@ -5716,7 +5676,7 @@
       <c r="K2"/>
     </row>
     <row r="3" s="35" customFormat="1" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
@@ -5751,11 +5711,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3"/>
@@ -5765,7 +5724,7 @@
       <c r="K5"/>
     </row>
     <row r="6" s="35" customFormat="1" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6" s="67">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5773,8 +5732,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="3"/>
@@ -5784,7 +5742,9 @@
       <c r="K6"/>
     </row>
     <row r="7" s="35" customFormat="1" spans="1:11">
-      <c r="A7" s="3"/>
+      <c r="A7" s="67">
+        <v>2</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -5798,10 +5758,12 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" s="35" customFormat="1" ht="60" spans="1:11">
-      <c r="A8"/>
+    <row r="8" s="35" customFormat="1" ht="57.6" spans="1:11">
+      <c r="A8" s="68">
+        <v>3</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5818,7 +5780,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5884,10 +5846,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="30" spans="1:7">
+    <row r="14" customFormat="1" ht="28.8" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="45" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="46"/>
@@ -5895,72 +5857,72 @@
       <c r="F14" s="47"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" customFormat="1" ht="30" spans="1:7">
+    <row r="15" customFormat="1" ht="28.8" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="30" spans="1:7">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="45" spans="1:7">
+    <row r="17" customFormat="1" ht="43.2" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="90" spans="1:7">
+    <row r="18" customFormat="1" ht="86.4" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="75" spans="1:7">
+    <row r="19" customFormat="1" ht="72" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -5975,7 +5937,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -5983,67 +5945,67 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" customFormat="1" ht="120" spans="1:7">
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" customFormat="1" ht="115.2" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="26" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" customFormat="1" ht="30" spans="1:7">
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="26" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="50"/>
     </row>
     <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="51"/>
+      <c r="G24" s="50"/>
     </row>
     <row r="25" customFormat="1" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -6053,12 +6015,12 @@
         <v>68</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="51"/>
+      <c r="G25" s="50"/>
     </row>
     <row r="26" customFormat="1" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -6068,14 +6030,14 @@
         <v>71</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" customFormat="1" ht="30" spans="1:7">
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" customFormat="1" ht="28.8" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
@@ -6083,14 +6045,14 @@
         <v>111</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="51"/>
-    </row>
-    <row r="28" customFormat="1" ht="30" spans="1:7">
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -6098,14 +6060,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" customFormat="1" ht="30" spans="1:7">
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" customFormat="1" ht="28.8" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>78</v>
       </c>
@@ -6113,19 +6075,19 @@
         <v>143</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="51" t="s">
         <v>144</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="51"/>
-    </row>
-    <row r="30" customFormat="1" ht="45" spans="1:7">
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" customFormat="1" ht="43.2" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="19" t="s">
@@ -6133,7 +6095,7 @@
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="51"/>
+      <c r="G30" s="50"/>
     </row>
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="3" t="s">
@@ -6142,78 +6104,77 @@
       <c r="B31" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" customFormat="1" ht="60" spans="1:7">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57" t="s">
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" customFormat="1" ht="57.6" spans="1:7">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="63"/>
-      <c r="B33" s="60" t="s">
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="33" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A33" s="69"/>
+      <c r="B33" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-    </row>
-    <row r="34" customFormat="1" ht="45" spans="1:7">
-      <c r="A34" s="58"/>
-      <c r="B34" s="60" t="s">
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A34" s="57"/>
+      <c r="B34" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59" t="s">
+      <c r="C34" s="57"/>
+      <c r="D34" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" customFormat="1" ht="45" spans="1:7">
-      <c r="A35" s="58"/>
-      <c r="B35" s="60" t="s">
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A35" s="57"/>
+      <c r="B35" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-    </row>
-    <row r="36" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62" t="s">
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="1">
     <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6227,15 +6188,15 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.1428571428571" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="45.1388888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="78.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="23.5714285714286" customWidth="1"/>
-    <col min="4" max="16384" width="45.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="23.287037037037" customWidth="1"/>
+    <col min="2" max="2" width="78.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="23.5740740740741" customWidth="1"/>
+    <col min="4" max="16384" width="45.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:8">
@@ -6243,14 +6204,14 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -6358,10 +6319,10 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" s="35" customFormat="1" ht="60" spans="1:11">
+    <row r="8" s="35" customFormat="1" ht="57.6" spans="1:11">
       <c r="A8"/>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6378,7 +6339,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -6438,7 +6399,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>35</v>
@@ -6447,7 +6408,7 @@
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="45" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="46"/>
@@ -6455,72 +6416,72 @@
       <c r="F14" s="47"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" customFormat="1" ht="30" spans="1:7">
+    <row r="15" customFormat="1" ht="28.8" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="30" spans="1:7">
+    <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="45" spans="1:7">
+    <row r="17" customFormat="1" ht="43.2" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="180" spans="1:7">
+    <row r="18" customFormat="1" ht="172.8" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="49"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="150" spans="1:7">
+    <row r="19" customFormat="1" ht="144" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
@@ -6535,15 +6496,15 @@
         <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" customFormat="1" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -6553,12 +6514,12 @@
         <v>68</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="26" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" customFormat="1" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -6568,14 +6529,14 @@
         <v>71</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="26" t="s">
         <v>72</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" customFormat="1" ht="30" spans="1:7">
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" customFormat="1" ht="28.8" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -6583,14 +6544,14 @@
         <v>111</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="51"/>
-    </row>
-    <row r="24" customFormat="1" ht="30" spans="1:7">
+      <c r="G23" s="50"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
@@ -6598,14 +6559,14 @@
         <v>113</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="26" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="51"/>
-    </row>
-    <row r="25" customFormat="1" ht="30" spans="1:7">
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" customFormat="1" ht="28.8" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
@@ -6613,19 +6574,19 @@
         <v>143</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>144</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="51"/>
-    </row>
-    <row r="26" customFormat="1" ht="45" spans="1:7">
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" customFormat="1" ht="43.2" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
@@ -6633,7 +6594,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="51"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" customFormat="1" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -6642,48 +6603,48 @@
       <c r="B27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" customFormat="1" ht="60" spans="1:7">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57" t="s">
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" customFormat="1" ht="57.6" spans="1:7">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-    </row>
-    <row r="29" customFormat="1" ht="45" spans="1:7">
-      <c r="A29" s="58"/>
-      <c r="B29" s="60" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A29" s="57"/>
+      <c r="B29" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-    </row>
-    <row r="30" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62" t="s">
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A30" s="60"/>
+      <c r="B30" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6700,19 +6661,19 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="24" customWidth="1"/>
-    <col min="2" max="2" width="57.8571428571429" style="24" customWidth="1"/>
-    <col min="3" max="3" width="77.4285714285714" style="24" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.5714285714286" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="24"/>
+    <col min="1" max="1" width="12.4259259259259" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.8611111111111" style="24" customWidth="1"/>
+    <col min="3" max="3" width="77.4259259259259" style="24" customWidth="1"/>
+    <col min="4" max="4" width="30.4259259259259" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5740740740741" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.42592592592593" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.13888888888889" style="24"/>
   </cols>
   <sheetData>
     <row r="1" s="24" customFormat="1" ht="52" customHeight="1" spans="1:7">
@@ -6720,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>15</v>
@@ -6735,7 +6696,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>19</v>
@@ -6776,7 +6737,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -6811,7 +6772,7 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="9" s="24" customFormat="1" spans="1:7">
       <c r="A9" s="30" t="s">
         <v>30</v>
       </c>
@@ -6822,7 +6783,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>34</v>
@@ -6835,7 +6796,7 @@
     <row r="10" s="24" customFormat="1" spans="1:7">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -6848,10 +6809,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -6863,40 +6824,40 @@
         <v>2</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
-    <row r="13" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="13" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A13" s="31">
         <v>3</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
     </row>
-    <row r="14" s="24" customFormat="1" ht="45" spans="1:7">
+    <row r="14" s="24" customFormat="1" ht="43.2" spans="1:7">
       <c r="A14" s="31">
         <v>4</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -6908,85 +6869,85 @@
         <v>5</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="16" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A16" s="31">
         <v>6</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="17" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A17" s="31">
         <v>7</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="18" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A18" s="31">
         <v>8</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="19" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A19" s="31">
         <v>9</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="20" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A20" s="31">
         <v>10</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -6998,10 +6959,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -7013,10 +6974,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -7028,10 +6989,10 @@
         <v>13</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -7043,10 +7004,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -7058,10 +7019,10 @@
         <v>15</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -7073,10 +7034,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -7088,25 +7049,25 @@
         <v>17</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="28" s="24" customFormat="1" ht="28.8" spans="1:7">
       <c r="A28" s="31">
         <v>18</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -7118,10 +7079,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -7150,14 +7111,14 @@
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72222222222222" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
-    <col min="4" max="4" width="75.2761904761905" customWidth="1"/>
-    <col min="6" max="6" width="36.1809523809524" customWidth="1"/>
-    <col min="8" max="8" width="15.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="9.5462962962963" customWidth="1"/>
+    <col min="4" max="4" width="75.2777777777778" customWidth="1"/>
+    <col min="6" max="6" width="36.1851851851852" customWidth="1"/>
+    <col min="8" max="8" width="15.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7165,14 +7126,14 @@
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -7183,7 +7144,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
@@ -7223,12 +7184,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7257,7 +7218,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -7316,7 +7277,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -7329,11 +7290,11 @@
         <v>37</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7344,11 +7305,11 @@
         <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -7359,11 +7320,11 @@
         <v>43</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7383,7 +7344,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -7396,11 +7357,11 @@
         <v>52</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7411,11 +7372,11 @@
         <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7426,11 +7387,11 @@
         <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7441,11 +7402,11 @@
         <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7454,7 +7415,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -7462,16 +7423,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="75" spans="1:7">
+    <row r="24" ht="72" spans="1:7">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -7480,7 +7441,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -7488,16 +7449,16 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="60" spans="1:7">
+    <row r="26" ht="57.6" spans="1:7">
       <c r="A26" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -7508,11 +7469,11 @@
         <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7523,11 +7484,11 @@
         <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -7538,7 +7499,7 @@
         <v>75</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -7551,7 +7512,7 @@
         <v>78</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -7562,7 +7523,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -7570,46 +7531,46 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="120" spans="1:7">
+    <row r="32" ht="115.2" spans="1:7">
       <c r="A32" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="30" spans="1:7">
+    <row r="33" ht="28.8" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="30" spans="1:7">
+    <row r="34" ht="28.8" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7620,26 +7581,26 @@
         <v>85</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="45" spans="1:7">
+    <row r="36" ht="43.2" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7650,11 +7611,11 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7665,11 +7626,11 @@
         <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7680,11 +7641,11 @@
         <v>93</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -7695,26 +7656,26 @@
         <v>95</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="75" spans="1:7">
+    <row r="41" ht="72" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -7725,11 +7686,11 @@
         <v>98</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7740,11 +7701,11 @@
         <v>99</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -7755,11 +7716,11 @@
         <v>101</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -7770,11 +7731,11 @@
         <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -7785,11 +7746,11 @@
         <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -7800,7 +7761,7 @@
         <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -7813,22 +7774,22 @@
         <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" ht="30" spans="1:7">
+    <row r="49" ht="28.8" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -7838,14 +7799,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -7853,10 +7814,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -7866,10 +7827,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -7879,10 +7840,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -7892,10 +7853,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -7915,7 +7876,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -7925,14 +7886,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7950,7 +7911,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -7960,14 +7921,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -7975,14 +7936,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -7990,14 +7951,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -8005,31 +7966,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -8037,29 +7998,29 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" ht="45" spans="1:7">
+    <row r="66" ht="43.2" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -8067,29 +8028,29 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" ht="165" spans="1:7">
+    <row r="68" ht="158.4" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -8097,14 +8058,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -8112,14 +8073,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -8127,14 +8088,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -8142,14 +8103,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -8157,14 +8118,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -8172,14 +8133,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -8187,14 +8148,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -8202,14 +8163,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8217,14 +8178,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8233,7 +8194,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -8243,14 +8204,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -8258,14 +8219,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -8273,14 +8234,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
